--- a/words/planning.xlsx
+++ b/words/planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Cahier des charges</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>janvier</t>
-  </si>
-  <si>
-    <t>février</t>
   </si>
   <si>
     <t>mars</t>
@@ -92,9 +89,6 @@
     <t xml:space="preserve">   · Plan de test</t>
   </si>
   <si>
-    <t>Préparation soutenance mi-projet</t>
-  </si>
-  <si>
     <t>Codage des fonctionnalités</t>
   </si>
   <si>
@@ -108,6 +102,210 @@
   </si>
   <si>
     <t>Préparation soutenance finale</t>
+  </si>
+  <si>
+    <t>Semaine 5</t>
+  </si>
+  <si>
+    <t>Semaine 6</t>
+  </si>
+  <si>
+    <t>Semaine 38</t>
+  </si>
+  <si>
+    <t>Semaine 9</t>
+  </si>
+  <si>
+    <t>Semaine 39</t>
+  </si>
+  <si>
+    <t>Semaine 40</t>
+  </si>
+  <si>
+    <t>Semaine 41</t>
+  </si>
+  <si>
+    <t>Semaine 42</t>
+  </si>
+  <si>
+    <t>Semaine 43</t>
+  </si>
+  <si>
+    <t>Semaine 44</t>
+  </si>
+  <si>
+    <t>Semaine 45</t>
+  </si>
+  <si>
+    <t>Semaine 46</t>
+  </si>
+  <si>
+    <t>Semaine 47</t>
+  </si>
+  <si>
+    <t>Semaine 48</t>
+  </si>
+  <si>
+    <t>Semaine 49</t>
+  </si>
+  <si>
+    <t>Semaine 50</t>
+  </si>
+  <si>
+    <t>Semaine 51</t>
+  </si>
+  <si>
+    <t>Semaine 1</t>
+  </si>
+  <si>
+    <t>Semaine 2</t>
+  </si>
+  <si>
+    <t>Semaine 3</t>
+  </si>
+  <si>
+    <t>Semaine 4</t>
+  </si>
+  <si>
+    <t>Semaine 7</t>
+  </si>
+  <si>
+    <t>Semaine 8</t>
+  </si>
+  <si>
+    <t>Semaine 10</t>
+  </si>
+  <si>
+    <t>Semaine 11</t>
+  </si>
+  <si>
+    <t>Semaine 12</t>
+  </si>
+  <si>
+    <t>Semaine 13</t>
+  </si>
+  <si>
+    <t>Semaine 14</t>
+  </si>
+  <si>
+    <t>Semaine 15</t>
+  </si>
+  <si>
+    <t>Semaine 16</t>
+  </si>
+  <si>
+    <t>Semaine 17</t>
+  </si>
+  <si>
+    <t>fevrier</t>
+  </si>
+  <si>
+    <t>18/09-24/09</t>
+  </si>
+  <si>
+    <t>25/09-01/10</t>
+  </si>
+  <si>
+    <t>02/10-08/10</t>
+  </si>
+  <si>
+    <t>09/10-15/10</t>
+  </si>
+  <si>
+    <t>16/10-22/10</t>
+  </si>
+  <si>
+    <t>23/10-29/10</t>
+  </si>
+  <si>
+    <t>30/10-5/11</t>
+  </si>
+  <si>
+    <t>06/11-12/11</t>
+  </si>
+  <si>
+    <t>13/11-19/11</t>
+  </si>
+  <si>
+    <t>20/11-26/11</t>
+  </si>
+  <si>
+    <t>27/11-03/12</t>
+  </si>
+  <si>
+    <t>04/12-10/12</t>
+  </si>
+  <si>
+    <t>11/12-17/12</t>
+  </si>
+  <si>
+    <t>18/12-24/12</t>
+  </si>
+  <si>
+    <t>01/01-07/01</t>
+  </si>
+  <si>
+    <t>08/01-14/01</t>
+  </si>
+  <si>
+    <t>15/01-21/01</t>
+  </si>
+  <si>
+    <t>22/01-28/01</t>
+  </si>
+  <si>
+    <t>29/01-04/02</t>
+  </si>
+  <si>
+    <t>05/02-11/02</t>
+  </si>
+  <si>
+    <t>12/02-18/02</t>
+  </si>
+  <si>
+    <t>19/02-25/02</t>
+  </si>
+  <si>
+    <t>26/02-04/03</t>
+  </si>
+  <si>
+    <t>05/03-11/03</t>
+  </si>
+  <si>
+    <t>12/03-18/03</t>
+  </si>
+  <si>
+    <t>19/03-25/03</t>
+  </si>
+  <si>
+    <t>26/03-01/04</t>
+  </si>
+  <si>
+    <t>02/04-08/04</t>
+  </si>
+  <si>
+    <t>09/04-15/04</t>
+  </si>
+  <si>
+    <t>16/04-22/04</t>
+  </si>
+  <si>
+    <t>23/04-29/04</t>
+  </si>
+  <si>
+    <t>Validation mi-parcours</t>
+  </si>
+  <si>
+    <t>Préparation soutenance phase d'étude</t>
+  </si>
+  <si>
+    <t>Formation utilisateur</t>
+  </si>
+  <si>
+    <t>Mise en place de la base de données</t>
+  </si>
+  <si>
+    <t>Rédaction rapport final</t>
   </si>
 </sst>
 </file>
@@ -129,7 +327,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +365,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A40368-19B4-46D7-9DCA-3E03A271DDC9}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="A16:I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,319 +692,482 @@
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+        <v>82</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+        <v>84</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/words/planning.xlsx
+++ b/words/planning.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etienne\Desktop\ITI\projet100h\words\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2F0FC-A122-454B-9C2C-DC6C1052B3DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{1C65C10B-06D9-498F-9FF2-F6D35F4CFE18}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Cahier des charges</t>
   </si>
@@ -307,6 +308,15 @@
   <si>
     <t>Rédaction rapport final</t>
   </si>
+  <si>
+    <t>prévisionnel</t>
+  </si>
+  <si>
+    <t>retard</t>
+  </si>
+  <si>
+    <t>correspondant</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +356,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -359,13 +381,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A40368-19B4-46D7-9DCA-3E03A271DDC9}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,6 +717,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,6 +735,9 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -753,6 +783,9 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
@@ -809,151 +842,154 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -968,6 +1004,9 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1021,6 +1060,9 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -1074,100 +1116,112 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
